--- a/Gestion-pacientes/uploads/pacientes_export.xlsx
+++ b/Gestion-pacientes/uploads/pacientes_export.xlsx
@@ -448,79 +448,79 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Gus</v>
+        <v>Trejo</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Trejo</v>
+        <v>Emmanuel</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Trejo</v>
+        <v>diego</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Emmanuel</v>
+        <v>Christian Cid</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>diego</v>
+        <v>Fer</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Christian Cid</v>
+        <v>Diego</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Fer</v>
+        <v>Diego</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -536,120 +536,120 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Diego</v>
+        <v>Ernesto</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Diego</v>
+        <v>Ernesto</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Ernesto</v>
+        <v>Kiara</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Ernesto</v>
+        <v>Kiara</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Kiara</v>
+        <v>Emma</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Kiara</v>
+        <v>Fer</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Emma</v>
+        <v>Christian</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Fer</v>
+        <v>alan</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Christian</v>
+        <v>diego</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>alan</v>
+        <v>vane</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>diego</v>
+        <v>Vale</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>vane</v>
+        <v>Sergio</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -668,24 +668,24 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Vale</v>
+        <v>Christian</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Sergio</v>
+        <v>Christian</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -693,120 +693,120 @@
         <v>Christian</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Christian</v>
+        <v>Marcos</v>
       </c>
       <c r="B28">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Christian</v>
+        <v>Emma</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Marcos</v>
+        <v>Delia</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Emma</v>
+        <v>Donato</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Delia</v>
+        <v>Nay</v>
       </c>
       <c r="B32">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Donato</v>
+        <v>Chris</v>
       </c>
       <c r="B33">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Nay</v>
+        <v>Ali</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Chris</v>
+        <v>Jessi</v>
       </c>
       <c r="B35">
         <v>20</v>
       </c>
       <c r="C35">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ali</v>
+        <v>Alvaro</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Jessi</v>
+        <v>Frida</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38">
